--- a/medicine/Enfance/Coucou_(jeu)/Coucou_(jeu).xlsx
+++ b/medicine/Enfance/Coucou_(jeu)/Coucou_(jeu).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coucou est un jeu joué principalement avec les bébés. 
-Généralement un joueur (qui peut être l'enfant lui-même[1]) cache son visage et apparaît à nouveau. Le mot « coucou ! », parfois suivi d'un « me voilà ! » ou « beuh ! » accompagne la révélation. Il existe de nombreuses variantes impliquant ou non des objets de l'environnement immédiat.
+Généralement un joueur (qui peut être l'enfant lui-même) cache son visage et apparaît à nouveau. Le mot « coucou ! », parfois suivi d'un « me voilà ! » ou « beuh ! » accompagne la révélation. Il existe de nombreuses variantes impliquant ou non des objets de l'environnement immédiat.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce jeu utilise une structure récurrente dans les blagues : une surprise[2] ou une satisfaction[1] surviennent après une attente. 
-Ce jeu est utilisé par les psychologues du développement pour démontrer l'incapacité d'un enfant à comprendre la permanence des objets. En effet, cette compréhension est une étape importante du développement cognitif des nourrissons[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce jeu utilise une structure récurrente dans les blagues : une surprise ou une satisfaction surviennent après une attente. 
+Ce jeu est utilisé par les psychologues du développement pour démontrer l'incapacité d'un enfant à comprendre la permanence des objets. En effet, cette compréhension est une étape importante du développement cognitif des nourrissons.
 </t>
         </is>
       </c>
